--- a/data/publications/orcid/export_to_manual/Uniwersytet_Jagielloński_w_Krakowie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Jagielloński_w_Krakowie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,915 +436,992 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Barbara Jolanta Bętkowska-Korpała</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7893-8726</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Clinical and demographic predictors of mild cognitive impairment - cross-sectional study</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiadomosci lekarskie (Warsaw, Poland : 1960)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Barbara_Jolanta_Bętkowska-Korpała_5</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Barbara Jolanta Bętkowska-Korpała</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7893-8726</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Profiles of empathic sensitivity in students of the last year of medicine</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Folia medica Cracoviensia</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Barbara_Jolanta_Bętkowska-Korpała_8</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Barbara Jolanta Bętkowska-Korpała</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7893-8726</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Analysis of experiences in patients with cardioverter defibrillator after an episode of electrical storm,Analiza doswiadczen pacjentów z kardiowerterem-defibrylatorem po epizodzie burzy elektrycznej</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barbara_Jolanta_Bętkowska-Korpała_9</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Barbara Jolanta Bętkowska-Korpała</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7893-8726</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Main communication barriers in the process of delivering bad news to oncological patients - medical perspective</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Folia medica Cracoviensia</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbara_Jolanta_Bętkowska-Korpała_11</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>197</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Monika Kwiek</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0379-7484</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Teoria historii życia : prezentacja koncepcji oraz jej implikacji dla praktyki wychowawczej</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Erudito et Ars</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Monika_Kwiek_2</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>267</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jacek Neckar</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6821-1651</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Evolutionary explanations of the mechanisms of criminal behaviour: The implications for forensic psychology,Ewolucyjne wyjaśnienia mechanizmów zachowañ przestȩpczych i konsekwe ncje ich przyjȩcia dla psychologii sadowej</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Z Zagadnien Nauk Sadowych</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jacek_Neckar_2</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>298</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Natasza Orlov</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5560-2629</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Real-time Functional Magnetic Resonance Imaging Neurofeedback for the Relief of Distressing Auditory-Verbal Hallucinations: Methodological and Empirical Advances</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2020-12-01</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>SCHIZOPHRENIA BULLETIN</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Natasza_Orlov_6</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>302</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Natasza Orlov</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5560-2629</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Worry is associated with inefficient functional activity and connectivity in prefrontal and cingulate cortices during emotional interference</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018-10-30</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Brain and behavior</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Natasza_Orlov_10</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>336</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Maciej Sekerdej</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7031-1523</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>The Role of Indian Caste Identity and Caste Inconsistent Norms on Status Representation</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017-03</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Frontiers in Psychology</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Maciej_Sekerdej_8</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>391</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Wojciech Solecki</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0473-5472</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Behavioral and Molecular Endophenotypes of Opioid Addiction</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Heroin Addiction and Related Clinical Problems</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Wojciech_Solecki_9</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>428</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Paweł Marcin Strojny</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6016-044X</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Wykorzystanie symulatorów VR do szkolenia operatorów i obsługi platform BSP</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Paweł_Marcin_Strojny_9</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>430</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Paweł Marcin Strojny</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6016-044X</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Nie patrz mi na ręce. Wpływ obecnósci ́swiadków na realizację zadań ratowniczych.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Safety &amp; Fire Technology</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Paweł_Marcin_Strojny_11</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>431</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Paweł Marcin Strojny</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6016-044X</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Związek trudny tylko z pozoru: potencjał naukowy współpracy psychologów i deweloperów wirtualnej rzeczywistósci</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Paweł_Marcin_Strojny_12</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>448</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Analiza przyspieszeń w szybkich ruchach gałek ocznych.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_6</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>450</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Decrease selected graphomotor skills in early stages of Alzheimer's dementia.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Eur. Psychiatry</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_8</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>452</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Increased intake of monosaccharides and disaccharides in opioid-addicts.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Eur. Psychiatry</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_10</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>454</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Rola mikrobiomu jelitowego w ryzyku zachorowania na nowotwory i choroby układu krążenia.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_12</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>456</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Spożycie cukrów prostych u osób uzależnionych od opioidów.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_14</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>457</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Spożycie węglowodanów - perspektywa neuropsychologiczna.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_15</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>458</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>The diagnostic value of saccadic profile in Alzheimer's disease.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Eur. Psychiatry</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_16</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>459</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Wpływ egzogennych kannabinoidów na funkcjonowanie układu pokarmowego.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_17</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>460</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Zachowania żywieniowe i stan odżywienia osób uzależnionych od opioidów leczonych w programie leczenia substytucyjnego.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_18</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>461</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Zastosowanie technologii generatywnych w medycynie - druk 3D w przedoperacyjnej symulacji zabiegów chirurgicznych.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_19</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>462</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Piotr Krzysztof Walecki</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5544-2514</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Zastosowanie technologii generatywnych w medycynie - obrazowanie holograficzne i rozszerzona rzeczywistość w telemedycynie.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Episteme</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Piotr_Krzysztof_Walecki_20</t>
         </is>
